--- a/workingfolder/python/tables/DE_Est.xlsx
+++ b/workingfolder/python/tables/DE_Est.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myworld/Dropbox/ExpProject/workingfolder/python/tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99EE01F-65BB-584F-9A8E-86FFF1A2A5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>DE: $\theta_{SPF}$</t>
   </si>
@@ -38,30 +32,6 @@
   </si>
   <si>
     <t>DE: $\sigma_{\theta,SCE}$</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>FEVar</t>
-  </si>
-  <si>
-    <t>FEATV</t>
-  </si>
-  <si>
-    <t>Disg</t>
-  </si>
-  <si>
-    <t>DisgVar</t>
-  </si>
-  <si>
-    <t>DisgATV</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>DE: $\sigma_{\theta_SCE}$</t>
@@ -70,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,18 +58,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,29 +93,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -503,206 +417,41 @@
       <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-0.23</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3">
-        <v>9.35</v>
-      </c>
-      <c r="O2" s="3">
-        <v>10.65</v>
-      </c>
-      <c r="P2">
-        <v>0.82</v>
-      </c>
-      <c r="Q2">
-        <v>0.85</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-0.26</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1.41</v>
-      </c>
-      <c r="J3" s="3">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="N3" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O3" s="3">
-        <v>9.52</v>
-      </c>
-      <c r="P3">
-        <v>4.79</v>
-      </c>
-      <c r="Q3">
-        <v>4.59</v>
-      </c>
-      <c r="R3">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="S3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-0.24</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="J4" s="3">
-        <v>-0.17</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="N4" s="3">
-        <v>4.78</v>
-      </c>
-      <c r="O4" s="3">
-        <v>3.01</v>
-      </c>
-      <c r="P4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
